--- a/web/reports/trial.xlsx
+++ b/web/reports/trial.xlsx
@@ -12,9 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
-    <t>Bolo Jaikara</t>
+    <t>Student Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Primary contact</t>
+  </si>
+  <si>
+    <t>Secondary contact</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Hostel</t>
+  </si>
+  <si>
+    <t>Room number</t>
+  </si>
+  <si>
+    <t>Permission</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -66,8 +93,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
